--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用账号不能修改角色与分店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +799,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,17 +1012,37 @@
       <c r="T4" s="28"/>
     </row>
     <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="16">
+        <v>42631</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16">
+        <v>42631</v>
+      </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L5" s="15"/>
       <c r="M5" s="24"/>
       <c r="N5" s="16"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -148,6 +148,22 @@
   </si>
   <si>
     <t>禁用账号不能修改角色与分店</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号解锁功能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +815,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1054,17 +1070,33 @@
       <c r="T5" s="28"/>
     </row>
     <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="L6" s="15"/>
       <c r="M6" s="24"/>
       <c r="N6" s="16"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -164,6 +159,18 @@
   </si>
   <si>
     <t>彭堃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +822,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -933,10 +940,18 @@
       <c r="K2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="24"/>
+      <c r="L2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -975,10 +990,18 @@
       <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="24"/>
+      <c r="L3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42635</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
@@ -1017,10 +1040,18 @@
       <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="24"/>
+      <c r="L4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42636</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
@@ -1059,10 +1090,18 @@
       <c r="K5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="24"/>
+      <c r="L5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42637</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="21"/>
@@ -1097,10 +1136,18 @@
       <c r="K6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="24"/>
+      <c r="L6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42638</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -154,11 +154,55 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>彭堃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号修改密码优化</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>彭堃</t>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -166,7 +210,19 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -822,7 +878,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -941,16 +997,16 @@
         <v>28</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="N2" s="16">
         <v>42634</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -985,22 +1041,22 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="N3" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O3" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="N3" s="16">
-        <v>42635</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -1041,16 +1097,16 @@
         <v>28</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="N4" s="16">
-        <v>42636</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -1091,16 +1147,16 @@
         <v>28</v>
       </c>
       <c r="L5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="N5" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="N5" s="16">
-        <v>42637</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -1119,34 +1175,38 @@
         <v>39</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="F6" s="16">
+        <v>42631</v>
+      </c>
       <c r="G6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>47</v>
+      </c>
+      <c r="H6" s="16">
+        <v>42631</v>
+      </c>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N6" s="16">
-        <v>42638</v>
+        <v>42634</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -1155,21 +1215,49 @@
       <c r="T6" s="28"/>
     </row>
     <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="16">
+        <v>42631</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="16">
+        <v>42631</v>
+      </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="24"/>
+      <c r="J7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>No</t>
   </si>
@@ -114,18 +114,106 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕崇新</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭堃</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>角色账号设置性能优化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>消息管理模块性能优化</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -134,14 +222,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕崇新</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>禁用账号不能修改角色与分店</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -150,83 +230,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>New Features</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭堃</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>子账号修改密码优化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>李亚林</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
+    <t>子账号修改密码修改</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +882,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,13 +973,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>27</v>
@@ -997,16 +1001,16 @@
         <v>28</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N2" s="16">
         <v>42634</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
@@ -1019,13 +1023,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>27</v>
@@ -1041,22 +1045,22 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N3" s="16">
         <v>42634</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
@@ -1069,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>27</v>
@@ -1091,22 +1095,22 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>28</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N4" s="16">
         <v>42634</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -1119,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>27</v>
@@ -1147,16 +1151,16 @@
         <v>28</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N5" s="16">
         <v>42634</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -1169,44 +1173,44 @@
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F6" s="16">
         <v>42631</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" s="16">
         <v>42631</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N6" s="16">
         <v>42634</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P6" s="21"/>
       <c r="Q6" s="21"/>
@@ -1219,44 +1223,44 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16">
         <v>42631</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="16">
         <v>42631</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>56</v>
       </c>
       <c r="N7" s="16">
         <v>42634</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.0.2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13020"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -231,6 +236,70 @@
   </si>
   <si>
     <t>子账号修改密码修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）房源分配-优化页面2-按钮互换</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）账号设置-优化页面7-修改角色</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前端优化）角色分配-优化页面1-文字修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +951,7 @@
   <dimension ref="A1:T184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,21 +1338,49 @@
       <c r="T7" s="28"/>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="16">
+        <v>42634</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="16">
+        <v>42634</v>
+      </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="24"/>
+      <c r="J8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -1291,21 +1388,49 @@
       <c r="T8" s="28"/>
     </row>
     <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="16">
+        <v>42634</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="16">
+        <v>42634</v>
+      </c>
       <c r="I9" s="15"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="24"/>
+      <c r="J9" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -1313,21 +1438,49 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="16">
+        <v>42634</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="16">
+        <v>42634</v>
+      </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="24"/>
+      <c r="J10" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42634</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>

--- a/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
+++ b/VersionRecords/Version 5.0.2/版本Bug和特性计划及评审表v5.0.2_发现组.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -268,10 +268,6 @@
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>（前端优化）账号设置-优化页面7-修改角色</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -948,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T184"/>
+  <dimension ref="A1:T183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1392,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>61</v>
@@ -1407,29 +1403,29 @@
         <v>42634</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="H9" s="16">
         <v>42634</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="N9" s="16">
         <v>42634</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="P9" s="21"/>
       <c r="Q9" s="21"/>
@@ -1438,49 +1434,21 @@
       <c r="T9" s="28"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="16">
-        <v>42634</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="16">
-        <v>42634</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="16">
-        <v>42634</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>75</v>
-      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="24"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="21"/>
@@ -1818,25 +1786,25 @@
       <c r="T25" s="28"/>
     </row>
     <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="24"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="27"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="28"/>
     </row>
     <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -1861,27 +1829,26 @@
       <c r="S27" s="19"/>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="19"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="28"/>
+      <c r="S28" s="22"/>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
@@ -3022,7 +2989,7 @@
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
       <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="23"/>
       <c r="G83" s="21"/>
       <c r="H83" s="23"/>
@@ -3143,11 +3110,11 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="23"/>
       <c r="G89" s="21"/>
@@ -4419,9 +4386,6 @@
       <c r="M149" s="21"/>
       <c r="N149" s="23"/>
       <c r="O149" s="22"/>
-      <c r="P149" s="21"/>
-      <c r="Q149" s="21"/>
-      <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.15">
@@ -5035,24 +4999,6 @@
       <c r="N183" s="23"/>
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A184" s="21"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="21"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="26"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="23"/>
-      <c r="O184" s="22"/>
-      <c r="S184" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S1"/>
